--- a/server/excel/Kamdilichukwu6@gmail.comKamdilichukwuOkolo.xlsx
+++ b/server/excel/Kamdilichukwu6@gmail.comKamdilichukwuOkolo.xlsx
@@ -447,7 +447,7 @@
         <v>Phone Number</v>
       </c>
       <c r="B6" t="str">
-        <v>09075134655</v>
+        <v>070304632844</v>
       </c>
     </row>
     <row r="7">
@@ -463,7 +463,7 @@
         <v>Account Number</v>
       </c>
       <c r="B8" t="str">
-        <v>8901424366</v>
+        <v>8901059942</v>
       </c>
     </row>
     <row r="9">
